--- a/Input/william/benefits.xlsx
+++ b/Input/william/benefits.xlsx
@@ -20,60 +20,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographical Coverage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Network Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geographical Coverage</t>
+    <t xml:space="preserve">General Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claims Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic Condition Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-existing Condition Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodation Type</t>
   </si>
   <si>
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
   </si>
   <si>
-    <t xml:space="preserve">Accommodation Type</t>
+    <t xml:space="preserve">Diagnostics &amp; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeries &amp; Anesthesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
+    <t xml:space="preserve">Out-patient Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
+  </si>
+  <si>
     <t xml:space="preserve">Physiotherapy</t>
   </si>
   <si>
+    <t xml:space="preserve">Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity Waiting Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complications of Pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Born Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Waiting Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellness &amp; Health Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Health Benefit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency Evacuation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chronic Condition Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-existing Condition Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity Waiting Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental Waiting Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellness &amp; Health Screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Terms Available</t>
+    <t xml:space="preserve">Virtual / Tele Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Web Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modes of Payment</t>
   </si>
   <si>
     <t xml:space="preserve">Semi Annual Surcharge</t>
@@ -91,6 +157,9 @@
     <t xml:space="preserve">Area of cover</t>
   </si>
   <si>
+    <t xml:space="preserve">Co-pay/excess</t>
+  </si>
+  <si>
     <t xml:space="preserve">In-patient only</t>
   </si>
   <si>
@@ -100,7 +169,7 @@
     <t xml:space="preserve">Routine Maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental filter</t>
+    <t xml:space="preserve">Dental Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -130,134 +199,170 @@
     <t xml:space="preserve">filters</t>
   </si>
   <si>
+    <t xml:space="preserve">addons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discounts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">Nextcare GN+/Nextcare GN/Nextcare GN Excluding city hospital/Nextcare GN Excluding all Mediclinic hosp. &amp; clinics</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 9,175,000</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines and diagnostics &amp; lab tests- Covered in full 
-Consultations coverred with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient covered in full with 0% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full subject to declaration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Delivery and C-section- Covered up to AED 10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Dental- Covered up to AED 3,670 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Dental- 6 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Included in wellness check (vision check only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 1,835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank transfer/ Credit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">william_russell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE/Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 18,350,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Delivery and C-section- Covered up to AED 10,000 in the first year; 
-Covered up to AED 55,050 after 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Dental- Covered up to AED 5,505 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 2,569</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10% co-pay on all OP services</t>
+      <t xml:space="preserve">Nextcare GN+/Nextcare GN/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t xml:space="preserve">Nextcare GN Excluding city hospital/Nextcare GN Excluding all Mediclinic hosp. &amp; clinics</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20% co-pay on all OP services</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
+    <t xml:space="preserve">As per reasonable and customary charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines and diagnostics &amp; lab tests- Covered in full 
+Consultations coverred with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with 0% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered for children up to 15 years as per MOH schedule 
+Medically necessary vaccinations covered up to AED 1,101
+*Combined with Wellness benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP-Covered in full
+Normal Delivery and C-section- Covered up to AED 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 150,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 150,000 for first 90 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Dental- Covered up to AED 3,670 with 20% co-pay
+*Additional benefit available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Dental- 6 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Included in wellness check (vision check only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults 
+Covered as per DHA guidelines
+In addition preventive health and well-being covered up to AED 1,835
+Children
+Covered with sub-limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with limits and restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP and OP- Covered up to AED 10,000 subject to pre-approval
+OP medication covered up to AED 3,670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william_russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nil/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE/Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5% - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 18,350,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP-Covered in full
+Normal Delivery and C-section- Covered up to AED 10,000 in the first year; Covered up to AED 55,050 after 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 367,000 for first 90 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Dental- Covered up to AED 5,505 with 20% co-pay
+*Additional benefit available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Dental- 6 months wait
+Dental Plus- 12 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults 
+Covered as per DHA guidelines
+In addition preventive health and well-being covered up to AED 2,569
+Children
+Covered with sub-limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% co-pay on all OP services/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20% co-pay on all OP services/</t>
   </si>
 </sst>
 </file>
@@ -268,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,14 +402,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,27 +459,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,24 +492,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:BL4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG3" activeCellId="0" sqref="AG3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL2" activeCellId="0" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -428,28 +525,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -500,227 +597,444 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="AW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF4" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
